--- a/Reel Designer and Payout Calculator.xlsx
+++ b/Reel Designer and Payout Calculator.xlsx
@@ -1,23 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicholas.Wautier\Documents\GitHub\ASCII-Slot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickw\Documents\GitHub\ASCII-Slot\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D977B5A-1307-43AF-83B5-DA98A53A306F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14310" windowHeight="12420"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -83,7 +95,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -420,25 +432,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AB14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC10" sqref="AC10"/>
+      <selection activeCell="AA7" sqref="AA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="8" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="6.140625" hidden="1" customWidth="1"/>
     <col min="6" max="8" width="2" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="8" hidden="1" customWidth="1"/>
     <col min="10" max="12" width="4" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="0" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="8" hidden="1" customWidth="1"/>
     <col min="14" max="15" width="5" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="6" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="0" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="8" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="11.5703125" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="10.5703125" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="11.5703125" hidden="1" customWidth="1"/>
@@ -446,7 +458,7 @@
     <col min="22" max="22" width="2" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="5" hidden="1" customWidth="1"/>
     <col min="24" max="24" width="6" hidden="1" customWidth="1"/>
-    <col min="25" max="26" width="0" hidden="1" customWidth="1"/>
+    <col min="25" max="26" width="8" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -488,55 +500,55 @@
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" ref="F3:F13" si="0">COUNTIF(A:A,E3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="2">
         <f t="shared" ref="G3:G13" si="1">COUNTIF(B:B,E3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="2">
         <f t="shared" ref="H3:H13" si="2">COUNTIF(C:C,E3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3">
         <f>F3/SUM($F$3:$F$13)</f>
-        <v>0</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="K3" s="3">
         <f>G3/SUM($G$3:$G$13)</f>
-        <v>0</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="L3" s="3">
         <f>H3/SUM($H$3:$H$13)</f>
-        <v>0</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3">
         <f>J3</f>
-        <v>0</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="O3" s="3">
         <f>J3*K3</f>
-        <v>0</v>
+        <v>8.2644628099173556E-3</v>
       </c>
       <c r="P3" s="3">
         <f>J3*K3*L3</f>
-        <v>0</v>
+        <v>7.513148009015778E-4</v>
       </c>
       <c r="Q3" s="3"/>
       <c r="R3" s="3">
@@ -592,28 +604,28 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5">
         <f t="shared" ref="J4:J13" si="3">F4/SUM($F$3:$F$13)</f>
-        <v>0.1</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="K4" s="5">
         <f t="shared" ref="K4:K13" si="4">G4/SUM($G$3:$G$13)</f>
-        <v>0.1</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="L4" s="5">
         <f t="shared" ref="L4:L13" si="5">H4/SUM($H$3:$H$13)</f>
-        <v>0.1</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5">
         <f t="shared" ref="N4:N12" si="6">J4</f>
-        <v>0.1</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="O4" s="5">
         <f t="shared" ref="O4:O12" si="7">J4*K4</f>
-        <v>1.0000000000000002E-2</v>
+        <v>8.2644628099173556E-3</v>
       </c>
       <c r="P4" s="5">
         <f t="shared" ref="P4:P12" si="8">J4*K4*L4</f>
-        <v>1.0000000000000002E-3</v>
+        <v>7.513148009015778E-4</v>
       </c>
       <c r="Q4" s="5"/>
       <c r="R4" s="5">
@@ -634,11 +646,11 @@
       </c>
       <c r="W4">
         <f>O4*S4</f>
-        <v>1.0000000000000002E-2</v>
+        <v>8.2644628099173556E-3</v>
       </c>
       <c r="X4">
         <f>P4*T4</f>
-        <v>5.000000000000001E-3</v>
+        <v>3.7565740045078892E-3</v>
       </c>
       <c r="AA4">
         <v>1</v>
@@ -675,28 +687,28 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="K5" s="3">
         <f t="shared" si="4"/>
-        <v>0.1</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="L5" s="3">
         <f t="shared" si="5"/>
-        <v>0.1</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3">
         <f t="shared" si="6"/>
-        <v>0.1</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="O5" s="3">
         <f t="shared" si="7"/>
-        <v>1.0000000000000002E-2</v>
+        <v>8.2644628099173556E-3</v>
       </c>
       <c r="P5" s="3">
         <f t="shared" si="8"/>
-        <v>1.0000000000000002E-3</v>
+        <v>7.513148009015778E-4</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="3">
@@ -717,11 +729,11 @@
       </c>
       <c r="W5">
         <f t="shared" ref="W5:X12" si="13">O5*S5</f>
-        <v>2.0000000000000004E-2</v>
+        <v>1.6528925619834711E-2</v>
       </c>
       <c r="X5">
         <f t="shared" si="13"/>
-        <v>1.0000000000000002E-2</v>
+        <v>7.5131480090157785E-3</v>
       </c>
       <c r="AA5">
         <v>5</v>
@@ -758,28 +770,28 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="K6" s="5">
         <f t="shared" si="4"/>
-        <v>0.1</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="L6" s="5">
         <f t="shared" si="5"/>
-        <v>0.1</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5">
         <f t="shared" si="6"/>
-        <v>0.1</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="O6" s="5">
         <f t="shared" si="7"/>
-        <v>1.0000000000000002E-2</v>
+        <v>8.2644628099173556E-3</v>
       </c>
       <c r="P6" s="5">
         <f t="shared" si="8"/>
-        <v>1.0000000000000002E-3</v>
+        <v>7.513148009015778E-4</v>
       </c>
       <c r="Q6" s="5"/>
       <c r="R6" s="5">
@@ -800,14 +812,14 @@
       </c>
       <c r="W6">
         <f t="shared" si="13"/>
-        <v>3.0000000000000006E-2</v>
+        <v>2.4793388429752067E-2</v>
       </c>
       <c r="X6">
         <f t="shared" si="13"/>
-        <v>1.5000000000000003E-2</v>
+        <v>1.1269722013523668E-2</v>
       </c>
       <c r="AA6">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="AB6" t="s">
         <v>14</v>
@@ -841,28 +853,28 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="K7" s="3">
         <f t="shared" si="4"/>
-        <v>0.1</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="L7" s="3">
         <f t="shared" si="5"/>
-        <v>0.1</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3">
         <f t="shared" si="6"/>
-        <v>0.1</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="O7" s="3">
         <f t="shared" si="7"/>
-        <v>1.0000000000000002E-2</v>
+        <v>8.2644628099173556E-3</v>
       </c>
       <c r="P7" s="3">
         <f t="shared" si="8"/>
-        <v>1.0000000000000002E-3</v>
+        <v>7.513148009015778E-4</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="R7" s="3">
@@ -883,15 +895,15 @@
       </c>
       <c r="W7">
         <f t="shared" si="13"/>
-        <v>4.0000000000000008E-2</v>
+        <v>3.3057851239669422E-2</v>
       </c>
       <c r="X7">
         <f t="shared" si="13"/>
-        <v>2.0000000000000004E-2</v>
+        <v>1.5026296018031557E-2</v>
       </c>
       <c r="AA7">
         <f>SUM(V3:X13)</f>
-        <v>0.92500000000000027</v>
+        <v>0.91660405709992498</v>
       </c>
       <c r="AB7" t="s">
         <v>12</v>
@@ -925,28 +937,28 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="K8" s="5">
         <f t="shared" si="4"/>
-        <v>0.1</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="L8" s="5">
         <f t="shared" si="5"/>
-        <v>0.1</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5">
         <f t="shared" si="6"/>
-        <v>0.1</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="O8" s="5">
         <f t="shared" si="7"/>
-        <v>1.0000000000000002E-2</v>
+        <v>8.2644628099173556E-3</v>
       </c>
       <c r="P8" s="5">
         <f t="shared" si="8"/>
-        <v>1.0000000000000002E-3</v>
+        <v>7.513148009015778E-4</v>
       </c>
       <c r="Q8" s="5"/>
       <c r="R8" s="5">
@@ -967,11 +979,11 @@
       </c>
       <c r="W8">
         <f t="shared" si="13"/>
-        <v>5.000000000000001E-2</v>
+        <v>4.1322314049586778E-2</v>
       </c>
       <c r="X8">
         <f t="shared" si="13"/>
-        <v>2.5000000000000005E-2</v>
+        <v>1.8782870022539446E-2</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -1002,28 +1014,28 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="K9" s="3">
         <f t="shared" si="4"/>
-        <v>0.1</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="L9" s="3">
         <f t="shared" si="5"/>
-        <v>0.1</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3">
         <f t="shared" si="6"/>
-        <v>0.1</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="O9" s="3">
         <f t="shared" si="7"/>
-        <v>1.0000000000000002E-2</v>
+        <v>8.2644628099173556E-3</v>
       </c>
       <c r="P9" s="3">
         <f t="shared" si="8"/>
-        <v>1.0000000000000002E-3</v>
+        <v>7.513148009015778E-4</v>
       </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="3">
@@ -1044,15 +1056,15 @@
       </c>
       <c r="W9">
         <f t="shared" si="13"/>
-        <v>6.0000000000000012E-2</v>
+        <v>4.9586776859504134E-2</v>
       </c>
       <c r="X9">
         <f t="shared" si="13"/>
-        <v>3.0000000000000006E-2</v>
+        <v>2.2539444027047335E-2</v>
       </c>
       <c r="AA9">
-        <f>(COUNT(A:A)-1)*(COUNT(B:B)-1)*(COUNT(C:C)-1)</f>
-        <v>512</v>
+        <f>(COUNTA(A:A)-1)*(COUNTA(B:B)-1)*(COUNTA(C:C)-1)</f>
+        <v>1331</v>
       </c>
       <c r="AB9" t="s">
         <v>17</v>
@@ -1086,28 +1098,28 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="K10" s="5">
         <f t="shared" si="4"/>
-        <v>0.1</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="L10" s="5">
         <f t="shared" si="5"/>
-        <v>0.1</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5">
         <f t="shared" si="6"/>
-        <v>0.1</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="O10" s="5">
         <f t="shared" si="7"/>
-        <v>1.0000000000000002E-2</v>
+        <v>8.2644628099173556E-3</v>
       </c>
       <c r="P10" s="5">
         <f t="shared" si="8"/>
-        <v>1.0000000000000002E-3</v>
+        <v>7.513148009015778E-4</v>
       </c>
       <c r="Q10" s="5"/>
       <c r="R10" s="5">
@@ -1128,11 +1140,11 @@
       </c>
       <c r="W10">
         <f t="shared" si="13"/>
-        <v>7.0000000000000007E-2</v>
+        <v>5.7851239669421489E-2</v>
       </c>
       <c r="X10">
         <f t="shared" si="13"/>
-        <v>3.500000000000001E-2</v>
+        <v>2.6296018031555225E-2</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -1163,28 +1175,28 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="K11" s="3">
         <f t="shared" si="4"/>
-        <v>0.1</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="L11" s="3">
         <f t="shared" si="5"/>
-        <v>0.1</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3">
         <f t="shared" si="6"/>
-        <v>0.1</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="O11" s="3">
         <f t="shared" si="7"/>
-        <v>1.0000000000000002E-2</v>
+        <v>8.2644628099173556E-3</v>
       </c>
       <c r="P11" s="3">
         <f t="shared" si="8"/>
-        <v>1.0000000000000002E-3</v>
+        <v>7.513148009015778E-4</v>
       </c>
       <c r="Q11" s="3"/>
       <c r="R11" s="3">
@@ -1205,11 +1217,11 @@
       </c>
       <c r="W11">
         <f t="shared" si="13"/>
-        <v>8.0000000000000016E-2</v>
+        <v>6.6115702479338845E-2</v>
       </c>
       <c r="X11">
         <f t="shared" si="13"/>
-        <v>4.0000000000000008E-2</v>
+        <v>3.0052592036063114E-2</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
@@ -1240,28 +1252,28 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="K12" s="5">
         <f t="shared" si="4"/>
-        <v>0.1</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="L12" s="5">
         <f t="shared" si="5"/>
-        <v>0.1</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5">
         <f t="shared" si="6"/>
-        <v>0.1</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="O12" s="5">
         <f t="shared" si="7"/>
-        <v>1.0000000000000002E-2</v>
+        <v>8.2644628099173556E-3</v>
       </c>
       <c r="P12" s="5">
         <f t="shared" si="8"/>
-        <v>1.0000000000000002E-3</v>
+        <v>7.513148009015778E-4</v>
       </c>
       <c r="Q12" s="5"/>
       <c r="R12" s="5">
@@ -1282,14 +1294,23 @@
       </c>
       <c r="W12">
         <f t="shared" si="13"/>
-        <v>9.0000000000000024E-2</v>
+        <v>7.43801652892562E-2</v>
       </c>
       <c r="X12">
         <f t="shared" si="13"/>
-        <v>4.5000000000000012E-2</v>
+        <v>3.3809166040571E-2</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="E13" s="2" t="s">
         <v>11</v>
       </c>
@@ -1308,28 +1329,28 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="K13" s="3">
         <f t="shared" si="4"/>
-        <v>0.1</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="L13" s="3">
         <f t="shared" si="5"/>
-        <v>0.1</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3">
         <f t="shared" ref="N13" si="14">J13</f>
-        <v>0.1</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="O13" s="3">
         <f t="shared" ref="O13" si="15">J13*K13</f>
-        <v>1.0000000000000002E-2</v>
+        <v>8.2644628099173556E-3</v>
       </c>
       <c r="P13" s="3">
         <f t="shared" ref="P13" si="16">J13*K13*L13</f>
-        <v>1.0000000000000002E-3</v>
+        <v>7.513148009015778E-4</v>
       </c>
       <c r="Q13" s="3"/>
       <c r="R13" s="3">
@@ -1340,7 +1361,7 @@
       </c>
       <c r="T13" s="3">
         <f>AA6</f>
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="V13">
         <f t="shared" ref="V13" si="17">N13*R13</f>
@@ -1352,7 +1373,7 @@
       </c>
       <c r="X13">
         <f>P13*T13</f>
-        <v>0.25000000000000006</v>
+        <v>0.37565740045078888</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
